--- a/BoardLayout.xlsx
+++ b/BoardLayout.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="12435" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="25">
   <si>
     <t>X</t>
   </si>
@@ -86,12 +91,18 @@
   <si>
     <t>OR</t>
   </si>
+  <si>
+    <t>Number of Doors: 18</t>
+  </si>
+  <si>
+    <t>White: Door direction test in init tests</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,8 +110,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +152,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -135,10 +168,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -149,8 +184,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,15 +493,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -526,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -594,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -613,7 +656,7 @@
       <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -634,7 +677,7 @@
       <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="O3" s="2" t="s">
@@ -662,7 +705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -681,7 +724,7 @@
       <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -702,7 +745,7 @@
       <c r="M4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="O4" s="2" t="s">
@@ -730,7 +773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -798,7 +841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -866,7 +909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -927,14 +970,14 @@
       <c r="T7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="U7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="V7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1002,7 +1045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1070,8 +1113,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:22">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1138,14 +1181,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1206,14 +1249,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1274,7 +1317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1342,7 +1385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -1410,7 +1453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1478,7 +1521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -1546,11 +1589,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:22">
+      <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1614,7 +1657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -1663,7 +1706,7 @@
       <c r="P18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="R18" s="3" t="s">
@@ -1682,7 +1725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -1750,7 +1793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -1818,7 +1861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -1886,7 +1929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -1914,7 +1957,7 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K22" s="2" t="s">
@@ -1954,7 +1997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
@@ -1991,7 +2034,7 @@
       <c r="L23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2022,7 +2065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
@@ -2038,7 +2081,7 @@
       <c r="E24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -2090,7 +2133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
@@ -2106,7 +2149,7 @@
       <c r="E25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -2151,14 +2194,14 @@
       <c r="T25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="U25" s="3" t="s">
+      <c r="U25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="V25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" s="3" t="s">
         <v>13</v>
       </c>
@@ -2171,7 +2214,7 @@
       <c r="D26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -2226,7 +2269,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
@@ -2239,7 +2282,7 @@
       <c r="D27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -2294,7 +2337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -2362,7 +2405,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -2430,70 +2473,95 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
+      <c r="A30">
+        <v>0</v>
+      </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T30">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U30">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A32:D32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2503,9 +2571,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2515,8 +2588,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/BoardLayout.xlsx
+++ b/BoardLayout.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaac\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="12435" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="30">
   <si>
     <t>X</t>
   </si>
@@ -92,10 +92,25 @@
     <t>OR</t>
   </si>
   <si>
-    <t>Number of Doors: 18</t>
-  </si>
-  <si>
-    <t>White: Door direction test in init tests</t>
+    <t>Green: adjacency lists beside room entrance</t>
+  </si>
+  <si>
+    <t>Yellow: door direction tests</t>
+  </si>
+  <si>
+    <t>Orange: Room Cell adjacency</t>
+  </si>
+  <si>
+    <t>Purple: Exit room cell adjacency</t>
+  </si>
+  <si>
+    <t>Pink: walkway scenarios</t>
+  </si>
+  <si>
+    <t>Red: test targets</t>
+  </si>
+  <si>
+    <t>Number of doors:  18</t>
   </si>
 </sst>
 </file>
@@ -111,23 +126,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,7 +166,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF719A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -168,12 +216,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -187,20 +233,45 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF719A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -249,7 +320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,7 +355,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,15 +564,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -562,14 +633,14 @@
       <c r="T1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="V1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -637,7 +708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -656,7 +727,7 @@
       <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -677,7 +748,7 @@
       <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O3" s="2" t="s">
@@ -705,7 +776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -724,7 +795,7 @@
       <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -742,10 +813,10 @@
       <c r="L4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="4" t="s">
+      <c r="M4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O4" s="2" t="s">
@@ -773,7 +844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -841,7 +912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -857,7 +928,7 @@
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -909,7 +980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -970,14 +1041,14 @@
       <c r="T7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="V7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1045,7 +1116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1073,7 +1144,7 @@
       <c r="I9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="10" t="s">
         <v>2</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1088,7 +1159,7 @@
       <c r="N9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="12" t="s">
         <v>2</v>
       </c>
       <c r="P9" s="2" t="s">
@@ -1113,8 +1184,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1181,14 +1252,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1249,7 +1320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -1265,7 +1336,7 @@
       <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1317,7 +1388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1360,7 +1431,7 @@
       <c r="N13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="9" t="s">
         <v>2</v>
       </c>
       <c r="P13" s="2" t="s">
@@ -1385,7 +1456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -1437,7 +1508,7 @@
       <c r="Q14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="S14" s="3" t="s">
@@ -1453,7 +1524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1521,14 +1592,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1589,8 +1660,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1657,7 +1728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -1706,7 +1777,7 @@
       <c r="P18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="R18" s="3" t="s">
@@ -1725,7 +1796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -1768,13 +1839,13 @@
       <c r="N19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="10" t="s">
         <v>2</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="Q19" s="7" t="s">
         <v>2</v>
       </c>
       <c r="R19" s="2" t="s">
@@ -1786,14 +1857,14 @@
       <c r="T19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="U19" s="9" t="s">
         <v>2</v>
       </c>
       <c r="V19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -1861,7 +1932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -1929,7 +2000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -1957,10 +2028,10 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="7" t="s">
         <v>2</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -1997,7 +2068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
@@ -2034,7 +2105,7 @@
       <c r="L23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2043,7 +2114,7 @@
       <c r="O23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="P23" s="9" t="s">
         <v>2</v>
       </c>
       <c r="Q23" s="3" t="s">
@@ -2065,7 +2136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
@@ -2081,10 +2152,10 @@
       <c r="E24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="7" t="s">
         <v>2</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -2133,7 +2204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
@@ -2149,7 +2220,7 @@
       <c r="E25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -2201,7 +2272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>13</v>
       </c>
@@ -2262,14 +2333,14 @@
       <c r="T26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="U26" s="2" t="s">
+      <c r="U26" s="11" t="s">
         <v>2</v>
       </c>
       <c r="V26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
@@ -2282,7 +2353,7 @@
       <c r="D27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -2337,7 +2408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -2405,7 +2476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -2473,7 +2544,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -2538,30 +2609,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="5" t="s">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A32:D32"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2571,14 +2659,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2588,13 +2671,8 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>